--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama1-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H2">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J2">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1448673333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N2">
-        <v>0.434602</v>
+        <v>0.335025</v>
       </c>
       <c r="O2">
-        <v>0.03218399861311745</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P2">
-        <v>0.03218399861311746</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q2">
-        <v>0.004048897099333333</v>
+        <v>0.0074025635</v>
       </c>
       <c r="R2">
-        <v>0.036440073894</v>
+        <v>0.06662307149999999</v>
       </c>
       <c r="S2">
-        <v>0.001388084338423204</v>
+        <v>0.002724955803150211</v>
       </c>
       <c r="T2">
-        <v>0.001388084338423204</v>
+        <v>0.002724955803150211</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H3">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J3">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>6.759566</v>
       </c>
       <c r="O3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P3">
-        <v>0.5005726222366118</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q3">
-        <v>0.06297437004466667</v>
+        <v>0.1493563660844444</v>
       </c>
       <c r="R3">
-        <v>0.5667693304020001</v>
+        <v>1.34420729476</v>
       </c>
       <c r="S3">
-        <v>0.02158951799379199</v>
+        <v>0.05497953465704607</v>
       </c>
       <c r="T3">
-        <v>0.02158951799379199</v>
+        <v>0.05497953465704607</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H4">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J4">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.002935666666666666</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N4">
-        <v>0.008806999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O4">
-        <v>0.0006521932153688326</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P4">
-        <v>0.0006521932153688327</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q4">
-        <v>8.204894766666665E-05</v>
+        <v>0.001033497515555556</v>
       </c>
       <c r="R4">
-        <v>0.000738440529</v>
+        <v>0.009301477640000002</v>
       </c>
       <c r="S4">
-        <v>2.812885989593503E-05</v>
+        <v>0.0003804405126081576</v>
       </c>
       <c r="T4">
-        <v>2.812885989593503E-05</v>
+        <v>0.0003804405126081576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.027949</v>
+        <v>0.06628666666666667</v>
       </c>
       <c r="H5">
-        <v>0.083847</v>
+        <v>0.19886</v>
       </c>
       <c r="I5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="J5">
-        <v>0.04312964200344741</v>
+        <v>0.09845363529874238</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,90 +744,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.096925333333333</v>
+        <v>1.654403</v>
       </c>
       <c r="N5">
-        <v>6.290775999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P5">
-        <v>0.4658568668791965</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q5">
-        <v>0.05860696614133333</v>
+        <v>0.1096648601933334</v>
       </c>
       <c r="R5">
-        <v>0.527462695272</v>
+        <v>0.98698374174</v>
       </c>
       <c r="S5">
-        <v>0.0200922398933474</v>
+        <v>0.04036870432593794</v>
       </c>
       <c r="T5">
-        <v>0.0200922398933474</v>
+        <v>0.04036870432593794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.027949</v>
+        <v>0.585754</v>
       </c>
       <c r="H6">
-        <v>0.083847</v>
+        <v>1.757262</v>
       </c>
       <c r="I6">
-        <v>0.04312964200344741</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J6">
-        <v>0.04312964200344741</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.003305333333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N6">
-        <v>0.009915999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P6">
-        <v>0.0007343190557053872</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q6">
-        <v>9.238076133333334E-05</v>
+        <v>0.06541407795</v>
       </c>
       <c r="R6">
-        <v>0.000831426852</v>
+        <v>0.58872670155</v>
       </c>
       <c r="S6">
-        <v>3.167091798888291E-05</v>
+        <v>0.02407955991428817</v>
       </c>
       <c r="T6">
-        <v>3.167091798888291E-05</v>
+        <v>0.02407955991428818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>1.757262</v>
       </c>
       <c r="I7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J7">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1448673333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N7">
-        <v>0.434602</v>
+        <v>6.759566</v>
       </c>
       <c r="O7">
-        <v>0.03218399861311745</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P7">
-        <v>0.03218399861311746</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q7">
-        <v>0.08485661996933333</v>
+        <v>1.319814274254667</v>
       </c>
       <c r="R7">
-        <v>0.763709579724</v>
+        <v>11.878328468292</v>
       </c>
       <c r="S7">
-        <v>0.02909141484735573</v>
+        <v>0.4858365032209095</v>
       </c>
       <c r="T7">
-        <v>0.02909141484735573</v>
+        <v>0.4858365032209097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>1.757262</v>
       </c>
       <c r="I8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J8">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.253188666666667</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N8">
-        <v>6.759566</v>
+        <v>0.046774</v>
       </c>
       <c r="O8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P8">
-        <v>0.5005726222366118</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q8">
-        <v>1.319814274254667</v>
+        <v>0.009132685865333334</v>
       </c>
       <c r="R8">
-        <v>11.878328468292</v>
+        <v>0.08219417278800001</v>
       </c>
       <c r="S8">
-        <v>0.4524722359632055</v>
+        <v>0.003361830715412029</v>
       </c>
       <c r="T8">
-        <v>0.4524722359632055</v>
+        <v>0.00336183071541203</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,72 +980,72 @@
         <v>1.757262</v>
       </c>
       <c r="I9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790234</v>
       </c>
       <c r="J9">
-        <v>0.903909274825122</v>
+        <v>0.8700031784790236</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.002935666666666666</v>
+        <v>1.654403</v>
       </c>
       <c r="N9">
-        <v>0.008806999999999999</v>
+        <v>4.963209</v>
       </c>
       <c r="O9">
-        <v>0.0006521932153688326</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P9">
-        <v>0.0006521932153688327</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q9">
-        <v>0.001719578492666666</v>
+        <v>0.9690731748620001</v>
       </c>
       <c r="R9">
-        <v>0.015476206434</v>
+        <v>8.721658573758001</v>
       </c>
       <c r="S9">
-        <v>0.0005895234963499061</v>
+        <v>0.3567252846284137</v>
       </c>
       <c r="T9">
-        <v>0.0005895234963499062</v>
+        <v>0.3567252846284137</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.585754</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H10">
-        <v>1.757262</v>
+        <v>0.05434</v>
       </c>
       <c r="I10">
-        <v>0.903909274825122</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J10">
-        <v>0.903909274825122</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,90 +1054,90 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.096925333333333</v>
+        <v>0.111675</v>
       </c>
       <c r="N10">
-        <v>6.290775999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P10">
-        <v>0.4658568668791965</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q10">
-        <v>1.228282401701333</v>
+        <v>0.0020228065</v>
       </c>
       <c r="R10">
-        <v>11.054541615312</v>
+        <v>0.0182052585</v>
       </c>
       <c r="S10">
-        <v>0.4210923427130779</v>
+        <v>0.0007446147960534166</v>
       </c>
       <c r="T10">
-        <v>0.4210923427130779</v>
+        <v>0.0007446147960534168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.585754</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H11">
-        <v>1.757262</v>
+        <v>0.05434</v>
       </c>
       <c r="I11">
-        <v>0.903909274825122</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J11">
-        <v>0.903909274825122</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.003305333333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N11">
-        <v>0.009915999999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P11">
-        <v>0.0007343190557053872</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q11">
-        <v>0.001936112221333333</v>
+        <v>0.04081275738222222</v>
       </c>
       <c r="R11">
-        <v>0.017425009992</v>
+        <v>0.36731481644</v>
       </c>
       <c r="S11">
-        <v>0.0006637578051329249</v>
+        <v>0.01502357393776467</v>
       </c>
       <c r="T11">
-        <v>0.0006637578051329249</v>
+        <v>0.01502357393776468</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1160,46 +1160,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H12">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J12">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1448673333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N12">
-        <v>0.434602</v>
+        <v>0.046774</v>
       </c>
       <c r="O12">
-        <v>0.03218399861311745</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P12">
-        <v>0.03218399861311746</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q12">
-        <v>0.004971846879999999</v>
+        <v>0.0002824110177777778</v>
       </c>
       <c r="R12">
-        <v>0.04474662192</v>
+        <v>0.00254169916</v>
       </c>
       <c r="S12">
-        <v>0.001704499427338522</v>
+        <v>0.0001039582492966272</v>
       </c>
       <c r="T12">
-        <v>0.001704499427338522</v>
+        <v>0.0001039582492966272</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.03432</v>
+        <v>0.01811333333333333</v>
       </c>
       <c r="H13">
-        <v>0.10296</v>
+        <v>0.05434</v>
       </c>
       <c r="I13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611817</v>
       </c>
       <c r="J13">
-        <v>0.05296108317143064</v>
+        <v>0.02690320095611818</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,122 +1240,122 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.253188666666667</v>
+        <v>1.654403</v>
       </c>
       <c r="N13">
-        <v>6.759566</v>
+        <v>4.963209</v>
       </c>
       <c r="O13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="P13">
-        <v>0.5005726222366118</v>
+        <v>0.4100275647866666</v>
       </c>
       <c r="Q13">
-        <v>0.07732943504000001</v>
+        <v>0.02996675300666667</v>
       </c>
       <c r="R13">
-        <v>0.69596491536</v>
+        <v>0.26970077706</v>
       </c>
       <c r="S13">
-        <v>0.02651086827961433</v>
+        <v>0.01103105397300346</v>
       </c>
       <c r="T13">
-        <v>0.02651086827961433</v>
+        <v>0.01103105397300346</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.03432</v>
+        <v>0.003124</v>
       </c>
       <c r="H14">
-        <v>0.10296</v>
+        <v>0.009372</v>
       </c>
       <c r="I14">
-        <v>0.05296108317143064</v>
+        <v>0.004639985266115928</v>
       </c>
       <c r="J14">
-        <v>0.05296108317143064</v>
+        <v>0.004639985266115929</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.002935666666666666</v>
+        <v>0.111675</v>
       </c>
       <c r="N14">
-        <v>0.008806999999999999</v>
+        <v>0.335025</v>
       </c>
       <c r="O14">
-        <v>0.0006521932153688326</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="P14">
-        <v>0.0006521932153688327</v>
+        <v>0.02767755395605</v>
       </c>
       <c r="Q14">
-        <v>0.00010075208</v>
+        <v>0.0003488726999999999</v>
       </c>
       <c r="R14">
-        <v>0.0009067687199999998</v>
+        <v>0.0031398543</v>
       </c>
       <c r="S14">
-        <v>3.454085912299152E-05</v>
+        <v>0.0001284234425582006</v>
       </c>
       <c r="T14">
-        <v>3.454085912299152E-05</v>
+        <v>0.0001284234425582006</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.03432</v>
+        <v>0.003124</v>
       </c>
       <c r="H15">
-        <v>0.10296</v>
+        <v>0.009372</v>
       </c>
       <c r="I15">
-        <v>0.05296108317143064</v>
+        <v>0.004639985266115928</v>
       </c>
       <c r="J15">
-        <v>0.05296108317143064</v>
+        <v>0.004639985266115929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,60 +1364,60 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.096925333333333</v>
+        <v>2.253188666666667</v>
       </c>
       <c r="N15">
-        <v>6.290775999999999</v>
+        <v>6.759566</v>
       </c>
       <c r="O15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="P15">
-        <v>0.4658568668791965</v>
+        <v>0.5584307221385899</v>
       </c>
       <c r="Q15">
-        <v>0.07196647743999998</v>
+        <v>0.007038961394666666</v>
       </c>
       <c r="R15">
-        <v>0.6476982969599999</v>
+        <v>0.06335065255199999</v>
       </c>
       <c r="S15">
-        <v>0.02467228427277122</v>
+        <v>0.002591110322869535</v>
       </c>
       <c r="T15">
-        <v>0.02467228427277122</v>
+        <v>0.002591110322869536</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.03432</v>
+        <v>0.003124</v>
       </c>
       <c r="H16">
-        <v>0.10296</v>
+        <v>0.009372</v>
       </c>
       <c r="I16">
-        <v>0.05296108317143064</v>
+        <v>0.004639985266115928</v>
       </c>
       <c r="J16">
-        <v>0.05296108317143064</v>
+        <v>0.004639985266115929</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,90 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.003305333333333333</v>
+        <v>0.01559133333333333</v>
       </c>
       <c r="N16">
-        <v>0.009915999999999999</v>
+        <v>0.046774</v>
       </c>
       <c r="O16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="P16">
-        <v>0.0007343190557053872</v>
+        <v>0.003864159118693479</v>
       </c>
       <c r="Q16">
-        <v>0.00011343904</v>
+        <v>4.870732533333334E-05</v>
       </c>
       <c r="R16">
-        <v>0.00102095136</v>
+        <v>0.0004383659280000001</v>
       </c>
       <c r="S16">
-        <v>3.889033258357942E-05</v>
+        <v>1.792964137666525E-05</v>
       </c>
       <c r="T16">
-        <v>3.889033258357942E-05</v>
+        <v>1.792964137666526E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.003124</v>
+      </c>
+      <c r="H17">
+        <v>0.009372</v>
+      </c>
+      <c r="I17">
+        <v>0.004639985266115928</v>
+      </c>
+      <c r="J17">
+        <v>0.004639985266115929</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.654403</v>
+      </c>
+      <c r="N17">
+        <v>4.963209</v>
+      </c>
+      <c r="O17">
+        <v>0.4100275647866666</v>
+      </c>
+      <c r="P17">
+        <v>0.4100275647866666</v>
+      </c>
+      <c r="Q17">
+        <v>0.005168354972</v>
+      </c>
+      <c r="R17">
+        <v>0.046515194748</v>
+      </c>
+      <c r="S17">
+        <v>0.001902521859311527</v>
+      </c>
+      <c r="T17">
+        <v>0.001902521859311528</v>
       </c>
     </row>
   </sheetData>
